--- a/Solution/ProjetoX/src/test/resources/PlanilhasDeTeste/ContratoMustPassVerificandoAdicionandoPlanoContratadoEmContratoExistene.xlsx
+++ b/Solution/ProjetoX/src/test/resources/PlanilhasDeTeste/ContratoMustPassVerificandoAdicionandoPlanoContratadoEmContratoExistene.xlsx
@@ -47,10 +47,10 @@
     <t xml:space="preserve">Dias da semana *</t>
   </si>
   <si>
-    <t xml:space="preserve">Henrique nitatori</t>
+    <t xml:space="preserve">Henrique dos santos</t>
   </si>
   <si>
-    <t xml:space="preserve">Plano - Psicologia</t>
+    <t xml:space="preserve">Particular - Neuropsicopedagogia</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -83,16 +83,16 @@
     <t xml:space="preserve">Plano - Fonoaudiologia</t>
   </si>
   <si>
-    <t xml:space="preserve">Plano – Terapia Ocupacional</t>
+    <t xml:space="preserve">Plano - Terapia Ocupacional</t>
   </si>
   <si>
-    <t xml:space="preserve">Particular – Neuropsicopedagogia</t>
+    <t xml:space="preserve">Plano - Psicologia</t>
   </si>
   <si>
-    <t xml:space="preserve">Particular – Fonoaudiologia</t>
+    <t xml:space="preserve">Particular - Fonoaudiologia</t>
   </si>
   <si>
-    <t xml:space="preserve">Particular – Terapia Ocupacional</t>
+    <t xml:space="preserve">Particular - Terapia Ocupacional</t>
   </si>
   <si>
     <t xml:space="preserve">Particular - Psicologia</t>
@@ -3113,7 +3113,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3183,7 +3183,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C6" s="12" t="n">
         <v>30</v>
@@ -3194,7 +3194,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C7" s="12" t="n">
         <v>100</v>
